--- a/src/attributions/attributions_ig_traj_460.xlsx
+++ b/src/attributions/attributions_ig_traj_460.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1692530881317481</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02388843878701788</v>
+        <v>-0.1196116061141161</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.290569133234185</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0752747790832918</v>
+        <v>0.006638047860872211</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1771032961838191</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.03072508869134251</v>
+        <v>-0.08015518083814908</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0.2541322985548342</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.08331859978989919</v>
+        <v>0.02476157060175758</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1058,103 +1058,103 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07637382080941171</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.005319361656481994</v>
+        <v>-0.1114215457575703</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.01317060550227939</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.05049654333859852</v>
+        <v>-0.01740300039027242</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.08422352054661283</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.006613636536537511</v>
+        <v>-0.007358126984907245</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.0209489242586958</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.006171807601813321</v>
+        <v>-0.001278400681974891</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0464462242388615</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.02751495149621856</v>
+        <v>-0.05293777923492834</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.04805918661798327</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03841787258017598</v>
+        <v>0.07416228179326181</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.03641194016184994</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.05429725385798587</v>
+        <v>-0.1561542071371479</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.1159826283168068</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1313373651774899</v>
+        <v>-0.02550510037105823</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1166,46 +1166,46 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.08428323060219542</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.002514278565086629</v>
+        <v>-0.01975330946610538</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.1173026497105192</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.01292158709796887</v>
+        <v>0.01848489159634745</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03762173229776654</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.007441779357083068</v>
+        <v>0.01234147895666798</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.04048451837496309</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02181580509307514</v>
+        <v>-0.04534039424958565</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.06229771774509758</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.03495417675251002</v>
+        <v>-0.05915712025865116</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.02790266473584342</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.07741978666257421</v>
+        <v>-0.0324154409580402</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.02085713206597701</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.01379150220727465</v>
+        <v>0.02752952368981012</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.04935487713575477</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03537879634801329</v>
+        <v>0.01352769766097447</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0122851487385819</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02154267071750614</v>
+        <v>-0.02357779391119231</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.01519330751800707</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01771284289813244</v>
+        <v>0.0674696792572889</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,28 +1295,28 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.008912414031098343</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.009854892902820302</v>
+        <v>0.04430740944458727</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04969995472952137</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.03014321212927134</v>
+        <v>0.004314839788907577</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB2" t="n">
         <v>-0</v>
@@ -1328,25 +1328,25 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0003510808696811602</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.02383156206756765</v>
+        <v>0.04071710234245642</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.006051752272508887</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01143757959461113</v>
+        <v>0.05840709464602017</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
         <v>-0</v>
@@ -1355,25 +1355,25 @@
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02942108204162724</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02422020191070427</v>
+        <v>-0.02989034350703162</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.04157758598046472</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02578988676486908</v>
+        <v>-0.06208716646384525</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
         <v>-0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.006102801790673829</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.01375020978800217</v>
+        <v>-0.05999670130279144</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.005262735983777017</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.03216571581157585</v>
+        <v>-0.03917335870846283</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.09678723118487248</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.01858526504133946</v>
+        <v>0.04390391319024155</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.09826642592587737</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01484375352863474</v>
+        <v>-0.01862336688472342</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,133 +1436,133 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.01246993850330534</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.05581672898166949</v>
+        <v>0.05288800328953746</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.05981517127729411</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.02725900989702469</v>
+        <v>0.0196735427834946</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.01897169057724541</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.00485810930521733</v>
+        <v>0.0387038909027299</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.04123072011519976</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.03139812871785987</v>
+        <v>0.01666623914432457</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0298599597298412</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.009763662414248815</v>
+        <v>-0.009345571191879251</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.01487059634927098</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.007199861632411888</v>
+        <v>0.02129248369880309</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.08597352038412021</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.00845851224933585</v>
+        <v>-0.002131586852149674</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.009157938490005671</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.02253363137171464</v>
+        <v>-0.002676297973793981</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.03703172315767859</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.07476150374588833</v>
+        <v>-0.0440100622146601</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.01701625603450851</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
